--- a/코드/Python/2004_(Lee_&_Bathe)/MITC6 debug.xlsx
+++ b/코드/Python/2004_(Lee_&_Bathe)/MITC6 debug.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>a0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -392,53 +392,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:N14"/>
+  <dimension ref="C3:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="14" max="14" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C3">
         <v>1</v>
       </c>
@@ -475,8 +440,11 @@
       <c r="N3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="P3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>1</v>
       </c>
@@ -513,8 +481,11 @@
       <c r="N4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="P4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>1</v>
       </c>
@@ -551,8 +522,11 @@
       <c r="N5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="P5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>1</v>
       </c>
@@ -589,8 +563,11 @@
       <c r="N6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="P6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>0</v>
       </c>
@@ -627,8 +604,11 @@
       <c r="N7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="P7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>0</v>
       </c>
@@ -665,8 +645,11 @@
       <c r="N8">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="P8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>0</v>
       </c>
@@ -703,8 +686,11 @@
       <c r="N9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="P9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>0</v>
       </c>
@@ -741,8 +727,11 @@
       <c r="N10">
         <v>0.11111111</v>
       </c>
-    </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="P10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>-0.70710678000000005</v>
       </c>
@@ -779,8 +768,11 @@
       <c r="N11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="P11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>-0.70710678000000005</v>
       </c>
@@ -817,8 +809,11 @@
       <c r="N12">
         <v>0.17677670000000001</v>
       </c>
-    </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="P12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>-0.70710678000000005</v>
       </c>
@@ -855,8 +850,11 @@
       <c r="N13">
         <v>0.70710678000000005</v>
       </c>
-    </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="P13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>-0.70710678000000005</v>
       </c>
@@ -892,6 +890,47 @@
       </c>
       <c r="N14">
         <v>7.8567419999999999E-2</v>
+      </c>
+      <c r="P14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38" t="s">
+        <v>5</v>
+      </c>
+      <c r="I38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J38" t="s">
+        <v>7</v>
+      </c>
+      <c r="K38" t="s">
+        <v>8</v>
+      </c>
+      <c r="L38" t="s">
+        <v>9</v>
+      </c>
+      <c r="M38" t="s">
+        <v>10</v>
+      </c>
+      <c r="N38" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
